--- a/examples/official/zxing_zbar/benchmark.xlsx
+++ b/examples/official/zxing_zbar/benchmark.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,169 +526,169 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0045496472719_1.jpg</t>
+          <t>0075720000814_1.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0045496472719</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3270720090064</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3270720090064</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3270720090064</t>
+          <t>0075720000814</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>0075720000814</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>0075720000814</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>0075720000814</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0075720000814_1.jpg</t>
+          <t>0202264031091_1.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0075720000814</t>
+          <t>0202264031091</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>0075720000814</t>
+          <t>0202264031091</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>0075720000814</t>
+          <t>0202264031091</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>0075720000814</t>
+          <t>0202264031091</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0202264031091_1.jpg</t>
+          <t>0203355007223_1.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0202264031091</t>
+          <t>0203355007223</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>0202264031091</t>
+          <t>0203355007223</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>0202264031091</t>
+          <t>0203355007223</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>0202264031091</t>
+          <t>0203355007223</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0203355007223_1.jpg</t>
+          <t>0206028035554_1.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0203355007223</t>
+          <t>0206028035554</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>0203355007223</t>
+          <t>0206028035554</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>0203355007223</t>
+          <t>0206028035554</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>0203355007223</t>
+          <t>0206028035554</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0206028035554_1.jpg</t>
+          <t>0211185010047_1.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0206028035554</t>
+          <t>0211185010047</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>0206028035554</t>
+          <t>0211185010047</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>0206028035554</t>
+          <t>0211185010047</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>0206028035554</t>
+          <t>0211185010047</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0211185010047_1.jpg</t>
+          <t>0211493013129_1.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0211185010047</t>
+          <t>0211493013129</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>0211185010047</t>
+          <t>0211493013129</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>0211185010047</t>
+          <t>0211493013129</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>0211185010047</t>
+          <t>0211493013129</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0211493013129_1.jpg</t>
+          <t>0211493013129_2.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -706,89 +706,85 @@
           <t>0211493013129</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>0211493013129</t>
-        </is>
-      </c>
+      <c r="E10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0211493013129_2.jpg</t>
+          <t>0211633025326_1.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0211493013129</t>
+          <t>0211633025326</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>0211493013129</t>
+          <t>0211633025326</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>0211493013129</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr"/>
+          <t>0211633025326</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>0211633025326</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0211633025326_1.jpg</t>
+          <t>0215861038509_1.jpg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0211633025326</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>0211633025326</t>
-        </is>
-      </c>
+          <t>0215861038509</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>0211633025326</t>
+          <t>0215861038509</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>0211633025326</t>
+          <t>0215861038509</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0215861038509_1.jpg</t>
+          <t>0247534029262_1.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0215861038509</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
+          <t>0247534029262</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>0247534029262</t>
+        </is>
+      </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>0215861038509</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>0215861038509</t>
-        </is>
-      </c>
+          <t>0247534029262</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0247534029262_1.jpg</t>
+          <t>0247534029262_2.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -806,167 +802,167 @@
           <t>0247534029262</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>0247534029262</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0247534029262_2.jpg</t>
+          <t>0291439016735_2.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0247534029262</t>
+          <t>0291439016735</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>0247534029262</t>
+          <t>0291439016735</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>0247534029262</t>
+          <t>0291439016735</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>0247534029262</t>
+          <t>0291439016735</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0291439016735_2.jpg</t>
+          <t>0637913356506_2.jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0291439016735</t>
+          <t>0637913356506</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>0291439016735</t>
+          <t>0637913356506</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>0291439016735</t>
+          <t>0637913356506</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>0291439016735</t>
+          <t>0637913356506</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0637913356506_2.jpg</t>
+          <t>0811387017099_2.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0637913356506</t>
+          <t>0811387017099</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>0637913356506</t>
+          <t>0811387017099</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>0637913356506</t>
+          <t>0811387017099</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>0637913356506</t>
+          <t>0811387017099</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0811387017099_2.jpg</t>
+          <t>1040000062669_1.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0811387017099</t>
+          <t>1040000062669</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>0811387017099</t>
+          <t>1040000062669</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>0811387017099</t>
+          <t>1040000062669</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>0811387017099</t>
+          <t>1040000062669</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1040000062669_1.jpg</t>
+          <t>2000700048829_1.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1040000062669</t>
+          <t>2000700048829</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>1040000062669</t>
+          <t>2000700048829</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>1040000062669</t>
+          <t>2000700048829</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>1040000062669</t>
+          <t>2000700048829</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2000700048829_1.jpg</t>
+          <t>2010945099999_2.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2000700048829</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>2000700048829</t>
-        </is>
-      </c>
+          <t>2010945099999</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>2000700048829</t>
+          <t>2010945099999</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>2000700048829</t>
+          <t>2010945099999</t>
         </is>
       </c>
     </row>
@@ -1000,129 +996,133 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2152663000991_1.jpg</t>
+          <t>20665913_2.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2152663000991</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
+          <t>20665913</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>20665913</t>
+        </is>
+      </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>2152663000991</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t>20665913</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>20665913</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2233400002673_2.jpg</t>
+          <t>2152663000991_1.jpg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2233400002673</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>2233400002673</t>
-        </is>
-      </c>
+          <t>2152663000991</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>2233400002673</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>2233400002673</t>
-        </is>
-      </c>
+          <t>2152663000991</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2259797018677_1.jpg</t>
+          <t>2165742004797_1.jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2259797018677</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>2259797018677</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>2259797018677</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>2259797018677</t>
-        </is>
-      </c>
+          <t>2165742004797</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2275104045655_1.jpg</t>
+          <t>2233400002673_2.jpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2275104045655</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
+          <t>2233400002673</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>2233400002673</t>
+        </is>
+      </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>2275104045655</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>2233400002673</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>2233400002673</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2294875026113_1.jpg</t>
+          <t>2259797018677_1.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2294875026113</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr"/>
+          <t>2259797018677</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>2259797018677</t>
+        </is>
+      </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>2294875026113</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
+          <t>2259797018677</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>2259797018677</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2327452023509_1.jpg</t>
+          <t>2275104045655_1.jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2327452023509</t>
+          <t>2275104045655</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>8410672000406</t>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>2275104045655</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
@@ -1130,225 +1130,241 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2330740028407_2.jpg</t>
+          <t>2294875026113_1.jpg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2330740028407</t>
+          <t>2294875026113</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>2294875026113</t>
+        </is>
+      </c>
       <c r="E28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2424503026448_1.jpg</t>
+          <t>2330740028407_2.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2424503026448</t>
+          <t>2330740028407</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>2424503026448</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>2424503026448</t>
-        </is>
-      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2431628035293_1.jpg</t>
+          <t>2424503026448_1.jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2431628035293</t>
+          <t>2424503026448</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>2431628035293</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
+          <t>2424503026448</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>2424503026448</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2494593028073_1.jpg</t>
+          <t>2431628035293_1.jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2494593028073</t>
+          <t>2431628035293</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>2494593028073</t>
-        </is>
-      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>2431628035293</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2609928041263_1.jpg</t>
+          <t>2494593028073_1.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2609928041263</t>
+          <t>2494593028073</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>2609928041263</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>2494593028073</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2868039009054_1.jpg</t>
+          <t>253097016335_2.jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2868039009054</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>253097016335</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0253097016335</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>253097016335</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>253097016335</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2868039009054_2.jpg</t>
+          <t>2609928041263_1.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2868039009054</t>
+          <t>2609928041263</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>2609928041263</t>
+        </is>
+      </c>
       <c r="E34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2952211005443_1.jpg</t>
+          <t>2868039009054_1.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2952211005443</t>
+          <t>2868039009054</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>2952211005443</t>
-        </is>
-      </c>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3123931280338_1.jpg</t>
+          <t>2952211005443_1.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3123931280338</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>3123931280338</t>
-        </is>
-      </c>
+          <t>2952211005443</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>3123931280338</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>3123931280338</t>
-        </is>
-      </c>
+          <t>2952211005443</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3171920011272_1.jpg</t>
+          <t>3123931280338_1.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3171920011272</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
+          <t>3123931280338</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>3123931280338</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>3123931280338</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>3123931280338</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3171920011272_2.jpg</t>
+          <t>3144550019369_2.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3171920011272</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>3117980077872</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>3171920011272</t>
-        </is>
-      </c>
+          <t>3144550019369</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3173286693666_2.jpg</t>
+          <t>3171920011272_2.jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3173286693666</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="inlineStr"/>
+          <t>3171920011272</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>3117980077872</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>3171920011272</t>
+        </is>
+      </c>
       <c r="E39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1381,377 +1397,421 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3222475403064_2.jpg</t>
+          <t>3222475403330_1.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3222475403064</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>3222475403330</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>3222475403330</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>3222475403330</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>3222475403330</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3240931541419_1.jpg</t>
+          <t>3222476758729_2.jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3240931541419</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="inlineStr"/>
+          <t>3222476758729</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>3222476758729</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>3222476758729</t>
+        </is>
+      </c>
       <c r="E42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3245390217295_1.jpg</t>
+          <t>3228170857409_1.jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3245390217295</t>
+          <t>3228170857409</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>3245390217295</t>
+          <t>3228170857409</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>3245390217295</t>
+          <t>3228170857409</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>3245390217295</t>
+          <t>3228170857409</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3256221567557_2.jpg</t>
+          <t>3240931541419_1.jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3256221567557</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>3256221567557</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>3256221567557</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>3256221567557</t>
-        </is>
-      </c>
+          <t>3240931541419</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3258831092795_2.jpg</t>
+          <t>3245390217295_1.jpg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3258831092795</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
+          <t>3245390217295</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>3245390217295</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>3245390217295</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>3245390217295</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3262151833754_2.jpg</t>
+          <t>3256221567557_2.jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3262151833754</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
+          <t>3256221567557</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>3256221567557</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>3256221567557</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>3256221567557</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3265776629023_1.jpg</t>
+          <t>3258831092795_2.jpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3265776629023</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>3265776629023</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>3265776629023</t>
-        </is>
-      </c>
+          <t>3258831092795</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3275461000921_1.jpg</t>
+          <t>3259426013201_1.jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3275461000921</t>
+          <t>3259426013201</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>3275461000921</t>
+          <t>3259426013201</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>3275461000921</t>
+          <t>3259426013201</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>3275461000921</t>
+          <t>3259426013201</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3275461001775_1.jpg</t>
+          <t>3260890000499_1.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3275461001775</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr"/>
+          <t>3260890000499</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>http://www.legendesdupoitou.fr</t>
+        </is>
+      </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>3275461001775</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr"/>
+          <t>3260890000499</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>3260890000499</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3275461001775_2.jpg</t>
+          <t>3262151833754_2.jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3275461001775</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>3275461001775</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>3275461001775</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>3275461001775</t>
-        </is>
-      </c>
+          <t>3262151833754</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3276555858145_1.jpg</t>
+          <t>3264057554320_1.jpg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3276555858145</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
+          <t>3264057554320</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>3264057554320</t>
+        </is>
+      </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>3276555858145</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr"/>
+          <t>3264057554320</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>3264057554320</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3321271194050_2.jpg</t>
+          <t>3264057554320_2.jpg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3321271194050</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
+          <t>3264057554320</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>3264057554320</t>
+        </is>
+      </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>3321271194050</t>
-        </is>
-      </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t>3321271194050</t>
-        </is>
-      </c>
+          <t>3264057554320</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3328079000057_2.jpg</t>
+          <t>3265776629023_1.jpg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3328079000057</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr"/>
-      <c r="D53" s="2" t="inlineStr"/>
+          <t>3265776629023</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>3265776629023</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>3265776629023</t>
+        </is>
+      </c>
       <c r="E53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3336374401684_2.jpg</t>
+          <t>3270720090064_1.jpg</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3336374401684</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr"/>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
+          <t>3270720090064</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>3270720090064</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>3270720090064</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>3270720090064</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3343001113322_2.jpg</t>
+          <t>3275461000921_1.jpg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3343001113322</t>
+          <t>3275461000921</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>3343001113322</t>
+          <t>3275461000921</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>3343001113322</t>
+          <t>3275461000921</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>3343001113322</t>
+          <t>3275461000921</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3355430000302_2.jpg</t>
+          <t>3275461001775_1.jpg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3355430000302</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>3355430000302</t>
-        </is>
-      </c>
+          <t>3275461001775</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>3355430000302</t>
-        </is>
-      </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t>3355430000302</t>
-        </is>
-      </c>
+          <t>3275461001775</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3389090003342_1.jpg</t>
+          <t>3275461001775_2.jpg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3389090003342</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr"/>
+          <t>3275461001775</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>3275461001775</t>
+        </is>
+      </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>3389090003342</t>
+          <t>3275461001775</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>3389090003342</t>
+          <t>3275461001775</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3389090003342_2.jpg</t>
+          <t>3276555858145_1.jpg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3389090003342</t>
+          <t>3276555858145</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>3389090003342</t>
+          <t>3276555858145</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
@@ -1759,488 +1819,508 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3389682001244_2.jpg</t>
+          <t>3280950001013_1.jpg</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3389682001244</t>
+          <t>3280950001013</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>3389682001244</t>
+          <t>3280950001013</t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>3389682001244</t>
+          <t>3280950001013</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>3389682001244</t>
+          <t>3280950001013</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3390122203951_1.jpg</t>
+          <t>3303640000537_2.jpg</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3390122203951</t>
+          <t>3303640000537</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>3390122203951</t>
+          <t>3303640000537</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>3390122203951</t>
+          <t>3303640000537</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>3390122203951</t>
+          <t>3303640000537</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3417549311288_1.jpg</t>
+          <t>3321271194050_2.jpg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3417549311288</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>3417549311288</t>
-        </is>
-      </c>
+          <t>3321271194050</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>3417549311288</t>
+          <t>3321271194050</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>3417549311288</t>
+          <t>3321271194050</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3422882000423_3.jpg</t>
+          <t>3343001113322_2.jpg</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3422882000423</t>
+          <t>3343001113322</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>3422882000423</t>
+          <t>3343001113322</t>
         </is>
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>3422882000423</t>
+          <t>3343001113322</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>3422882000423</t>
+          <t>3343001113322</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3425470021008_1.jpg</t>
+          <t>3355430000302_2.jpg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3425470021008</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr"/>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
+          <t>3355430000302</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>3355430000302</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>3355430000302</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>3355430000302</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3435020008618_2.jpg</t>
+          <t>3366321053116_2.jpg</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3435020008618</t>
+          <t>3366321053116</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>3435020008618</t>
+          <t>3366321053116</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>3435020008618</t>
+          <t>3366321053116</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>3435020008618</t>
+          <t>3366321053116</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3456700083749_1.jpg</t>
+          <t>3380380077869_1.jpg</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3456700083749</t>
+          <t>3380380077869</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>3456700083749</t>
+          <t>3380380077869</t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>3456700083749</t>
+          <t>3380380077869</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>3456700083749</t>
+          <t>3380380077869</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3457040288764_1.jpg</t>
+          <t>3382562067439_2.jpg</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3457040288764</t>
+          <t>3382562067439</t>
         </is>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>3457040288764</t>
+          <t>3382562067439</t>
         </is>
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>3457040288764</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr"/>
+          <t>3382562067439</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>3382562067439</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3462800000302_1.jpg</t>
+          <t>3389090003342_1.jpg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3462800000302</t>
+          <t>3389090003342</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr"/>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>3389090003342</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>3389090003342</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3462800000302_2.jpg</t>
+          <t>3389090003342_2.jpg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3462800000302</t>
+          <t>3389090003342</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr"/>
-      <c r="D68" s="2" t="inlineStr"/>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>3389090003342</t>
+        </is>
+      </c>
       <c r="E68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3483130800554_1.jpg</t>
+          <t>3389682001244_2.jpg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3483130800554</t>
+          <t>3389682001244</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>3483130800554</t>
+          <t>3389682001244</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>3483130800554</t>
+          <t>3389682001244</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>3483130800554</t>
+          <t>3389682001244</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3492390018241_2.jpg</t>
+          <t>3390122203951_1.jpg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3492390018241</t>
+          <t>3390122203951</t>
         </is>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>3492390018241</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr"/>
+          <t>3390122203951</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>3390122203951</t>
+        </is>
+      </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>3492390018241</t>
+          <t>3390122203951</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3505340020239_1.jpg</t>
+          <t>3390124001852_1.jpg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3505340020239</t>
+          <t>3390124001852</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>3505340020239</t>
+          <t>3390124001852</t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>3505340020239</t>
+          <t>3390124001852</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>3505340020239</t>
+          <t>3390124001852</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3521232001148_1.jpg</t>
+          <t>3417549311288_1.jpg</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3521232001148</t>
+          <t>3417549311288</t>
         </is>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>3521232001148</t>
+          <t>3417549311288</t>
         </is>
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>3521232001148</t>
+          <t>3417549311288</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>3521232001148</t>
+          <t>3417549311288</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3523320200136_1.jpg</t>
+          <t>3417960000525_1.jpg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3523320200136</t>
+          <t>3417960000525</t>
         </is>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>3523320200136</t>
+          <t>3417960000525</t>
         </is>
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>3523320200136</t>
+          <t>3417960000525</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>3523320200136</t>
+          <t>3417960000525</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3523320200136_2.jpg</t>
+          <t>3417960000525_2.jpg</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3523320200136</t>
+          <t>3417960000525</t>
         </is>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>3523320200136</t>
+          <t>3417960000525</t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>3523320200136</t>
-        </is>
-      </c>
-      <c r="E74" s="1" t="inlineStr">
-        <is>
-          <t>3523320200136</t>
-        </is>
-      </c>
+          <t>3417960000525</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3532820000092_2.jpg</t>
+          <t>3422882000423_3.jpg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3532820000092</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr"/>
+          <t>3422882000423</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>3422882000423</t>
+        </is>
+      </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>3532820000092</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr"/>
+          <t>3422882000423</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>3422882000423</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3533631905576_1.jpg</t>
+          <t>3425470021008_1.jpg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3533631905576</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>3533631905576</t>
-        </is>
-      </c>
-      <c r="D76" s="1" t="inlineStr">
-        <is>
-          <t>3533631905576</t>
-        </is>
-      </c>
-      <c r="E76" s="1" t="inlineStr">
-        <is>
-          <t>3533631905576</t>
-        </is>
-      </c>
+          <t>3425470021008</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3538280842593_2.jpg</t>
+          <t>3428290000093_1.jpg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3538280842593</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>3538280842593</t>
-        </is>
-      </c>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>3538280842593</t>
-        </is>
-      </c>
+          <t>3428290000093</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr"/>
       <c r="E77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3540860029713_2.jpg</t>
+          <t>3435020008618_2.jpg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3540860029713</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr"/>
+          <t>3435020008618</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>3435020008618</t>
+        </is>
+      </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>3540860029713</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr"/>
+          <t>3435020008618</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>3435020008618</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3560071094980_1.jpg</t>
+          <t>3448550008010_2.jpg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3560071094980</t>
+          <t>3448550008010</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
@@ -2250,603 +2330,567 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3560468797012_2.jpg</t>
+          <t>3456700083749_1.jpg</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3560468797012</t>
+          <t>3456700083749</t>
         </is>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>3560468797012</t>
+          <t>3456700083749</t>
         </is>
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>3560468797012</t>
+          <t>3456700083749</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>3560468797012</t>
+          <t>3456700083749</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3565270011769_1.jpg</t>
+          <t>3457040288764_1.jpg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3565270011769</t>
+          <t>3457040288764</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>3565270011769</t>
+          <t>3457040288764</t>
         </is>
       </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>3565270011769</t>
-        </is>
-      </c>
-      <c r="E81" s="1" t="inlineStr">
-        <is>
-          <t>3565270011769</t>
-        </is>
-      </c>
+          <t>3457040288764</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3565270011769_2.jpg</t>
+          <t>3462800000302_1.jpg</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3565270011769</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>3565270011769</t>
-        </is>
-      </c>
-      <c r="D82" s="1" t="inlineStr">
-        <is>
-          <t>3565270011769</t>
-        </is>
-      </c>
-      <c r="E82" s="1" t="inlineStr">
-        <is>
-          <t>3565270011769</t>
-        </is>
-      </c>
+          <t>3462800000302</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3580281813034_2.jpg</t>
+          <t>3462800000302_2.jpg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3580281813034</t>
+          <t>3462800000302</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr"/>
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>3580281813034</t>
-        </is>
-      </c>
+      <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3662852000415_3.jpg</t>
+          <t>3483130800554_1.jpg</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3662852000415</t>
+          <t>3483130800554</t>
         </is>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>3662852000415</t>
+          <t>3483130800554</t>
         </is>
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t>3662852000415</t>
+          <t>3483130800554</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>3662852000415</t>
+          <t>3483130800554</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3700175002591_1.jpg</t>
+          <t>3492390018241_2.jpg</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3700175002591</t>
+          <t>3492390018241</t>
         </is>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>3700175002591</t>
-        </is>
-      </c>
-      <c r="D85" s="1" t="inlineStr">
-        <is>
-          <t>3700175002591</t>
-        </is>
-      </c>
+          <t>3492390018241</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>3700175002591</t>
+          <t>3492390018241</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3700175002591_2.jpg</t>
+          <t>3505340020239_1.jpg</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3700175002591</t>
+          <t>3505340020239</t>
         </is>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>3700175002591</t>
+          <t>3505340020239</t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>3700175002591</t>
+          <t>3505340020239</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>3700175002591</t>
+          <t>3505340020239</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3700197660441_2.jpg</t>
+          <t>3521232001148_1.jpg</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3700197660441</t>
+          <t>3521232001148</t>
         </is>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>3700197660441</t>
+          <t>3521232001148</t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>3700197660441</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr"/>
+          <t>3521232001148</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>3521232001148</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3700238314159_2.jpg</t>
+          <t>3523320200136_1.jpg</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3700238314159</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr"/>
-      <c r="D88" s="2" t="inlineStr"/>
-      <c r="E88" s="2" t="inlineStr"/>
+          <t>3523320200136</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>3523320200136</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>3523320200136</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>3523320200136</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3700476830589_2.jpg</t>
+          <t>3523320200136_2.jpg</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3700476830589</t>
+          <t>3523320200136</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>3700476830589</t>
+          <t>3523320200136</t>
         </is>
       </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>3700476830589</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr"/>
+          <t>3523320200136</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>3523320200136</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3700774300012_2.jpg</t>
+          <t>3532820000092_2.jpg</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3700774300012</t>
-        </is>
-      </c>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>3700774300012</t>
-        </is>
-      </c>
+          <t>3532820000092</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>3700774300012</t>
-        </is>
-      </c>
-      <c r="E90" s="1" t="inlineStr">
-        <is>
-          <t>3700774300012</t>
-        </is>
-      </c>
+          <t>3532820000092</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3700821902909_1.jpg</t>
+          <t>3533631905576_1.jpg</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3700821902909</t>
+          <t>3533631905576</t>
         </is>
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>3700821902909</t>
+          <t>3533631905576</t>
         </is>
       </c>
       <c r="D91" s="1" t="inlineStr">
         <is>
-          <t>3700821902909</t>
+          <t>3533631905576</t>
         </is>
       </c>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>3700821902909</t>
+          <t>3533631905576</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3760006881122_2.jpg</t>
+          <t>3538280842593_2.jpg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3760006881122</t>
+          <t>3538280842593</t>
         </is>
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>3760006881122</t>
+          <t>3538280842593</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>3760006881122</t>
-        </is>
-      </c>
-      <c r="E92" s="1" t="inlineStr">
-        <is>
-          <t>3760006881122</t>
-        </is>
-      </c>
+          <t>3538280842593</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3760044396411_2.jpg</t>
+          <t>3540860029713_2.jpg</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3760044396411</t>
-        </is>
-      </c>
-      <c r="C93" s="1" t="inlineStr">
-        <is>
-          <t>3760044396411</t>
-        </is>
-      </c>
+          <t>3540860029713</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
       <c r="D93" s="1" t="inlineStr">
         <is>
-          <t>3760044396411</t>
-        </is>
-      </c>
-      <c r="E93" s="1" t="inlineStr">
-        <is>
-          <t>3760044396411</t>
-        </is>
-      </c>
+          <t>3540860029713</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3760046253835_2.jpg</t>
+          <t>3560071094980_1.jpg</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3760046253835</t>
-        </is>
-      </c>
-      <c r="C94" s="1" t="inlineStr">
-        <is>
-          <t>3760046253835</t>
-        </is>
-      </c>
-      <c r="D94" s="1" t="inlineStr">
-        <is>
-          <t>3760046253835</t>
-        </is>
-      </c>
-      <c r="E94" s="1" t="inlineStr">
-        <is>
-          <t>3760046253835</t>
-        </is>
-      </c>
+          <t>3560071094980</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="inlineStr"/>
+      <c r="E94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3760055835039_2.jpg</t>
+          <t>3560468797012_2.jpg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3760055835039</t>
+          <t>3560468797012</t>
         </is>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
-          <t>3760055835039</t>
+          <t>3560468797012</t>
         </is>
       </c>
       <c r="D95" s="1" t="inlineStr">
         <is>
-          <t>3760055835039</t>
+          <t>3560468797012</t>
         </is>
       </c>
       <c r="E95" s="1" t="inlineStr">
         <is>
-          <t>3760055835039</t>
+          <t>3560468797012</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3760098453825_1.jpg</t>
+          <t>3565270011769_1.jpg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3760098453825</t>
+          <t>3565270011769</t>
         </is>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>3760098453825</t>
+          <t>3565270011769</t>
         </is>
       </c>
       <c r="D96" s="1" t="inlineStr">
         <is>
-          <t>3760098453825</t>
+          <t>3565270011769</t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>3760098453825</t>
+          <t>3565270011769</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3760098453825_2.jpg</t>
+          <t>3565270011769_2.jpg</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3760098453825</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr"/>
+          <t>3565270011769</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>3565270011769</t>
+        </is>
+      </c>
       <c r="D97" s="1" t="inlineStr">
         <is>
-          <t>3760098453825</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr"/>
+          <t>3565270011769</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>3565270011769</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3760129920548_1.jpg</t>
+          <t>3580281813034_2.jpg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3760129920548</t>
-        </is>
-      </c>
-      <c r="C98" s="1" t="inlineStr">
-        <is>
-          <t>3760129920548</t>
-        </is>
-      </c>
+          <t>3580281813034</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr"/>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>3760129920548</t>
-        </is>
-      </c>
-      <c r="E98" s="1" t="inlineStr">
-        <is>
-          <t>3760129920548</t>
-        </is>
-      </c>
+          <t>3580281813034</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3760241200115_1.jpg</t>
+          <t>3662852000415_3.jpg</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3760241200115</t>
+          <t>3662852000415</t>
         </is>
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t>3760241200115</t>
+          <t>3662852000415</t>
         </is>
       </c>
       <c r="D99" s="1" t="inlineStr">
         <is>
-          <t>3760241200115</t>
+          <t>3662852000415</t>
         </is>
       </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t>3760241200115</t>
+          <t>3662852000415</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3760241200115_2.jpg</t>
+          <t>3700175002591_1.jpg</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3760241200115</t>
+          <t>3700175002591</t>
         </is>
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>3760241200115</t>
+          <t>3700175002591</t>
         </is>
       </c>
       <c r="D100" s="1" t="inlineStr">
         <is>
-          <t>3760241200115</t>
+          <t>3700175002591</t>
         </is>
       </c>
       <c r="E100" s="1" t="inlineStr">
         <is>
-          <t>3760241200115</t>
+          <t>3700175002591</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3760251820037_2.jpg</t>
+          <t>3700175002591_2.jpg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3760251820037</t>
+          <t>3700175002591</t>
         </is>
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
-          <t>3760251820037</t>
+          <t>3700175002591</t>
         </is>
       </c>
       <c r="D101" s="1" t="inlineStr">
         <is>
-          <t>3760251820037</t>
+          <t>3700175002591</t>
         </is>
       </c>
       <c r="E101" s="1" t="inlineStr">
         <is>
-          <t>3760251820037</t>
+          <t>3700175002591</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3760253840927_2.jpg</t>
+          <t>3700197660441_2.jpg</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3760253840927</t>
+          <t>3700197660441</t>
         </is>
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>3760253840927</t>
+          <t>3700197660441</t>
         </is>
       </c>
       <c r="D102" s="1" t="inlineStr">
         <is>
-          <t>3760253840927</t>
-        </is>
-      </c>
-      <c r="E102" s="1" t="inlineStr">
-        <is>
-          <t>3760253840927</t>
-        </is>
-      </c>
+          <t>3700197660441</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3770006361418_1.jpg</t>
+          <t>3700476830589_2.jpg</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3770006361418</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="inlineStr"/>
+          <t>3700476830589</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>3700476830589</t>
+        </is>
+      </c>
       <c r="D103" s="1" t="inlineStr">
         <is>
-          <t>3770006361418</t>
+          <t>3700476830589</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
@@ -2854,1317 +2898,1389 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3770008126008_1.jpg</t>
+          <t>3700774300012_2.jpg</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3770008126008</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr"/>
-      <c r="D104" s="2" t="inlineStr"/>
-      <c r="E104" s="2" t="inlineStr"/>
+          <t>3700774300012</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>3700774300012</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>3700774300012</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>3700774300012</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3770008126008_2.jpg</t>
+          <t>3700821902909_1.jpg</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3770008126008</t>
+          <t>3700821902909</t>
         </is>
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>3770008126008</t>
+          <t>3700821902909</t>
         </is>
       </c>
       <c r="D105" s="1" t="inlineStr">
         <is>
-          <t>3770008126008</t>
+          <t>3700821902909</t>
         </is>
       </c>
       <c r="E105" s="1" t="inlineStr">
         <is>
-          <t>3770008126008</t>
+          <t>3700821902909</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4005696301642_1.jpg</t>
+          <t>3760006881122_2.jpg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>4005696301642</t>
+          <t>3760006881122</t>
         </is>
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>4005696301642</t>
+          <t>3760006881122</t>
         </is>
       </c>
       <c r="D106" s="1" t="inlineStr">
         <is>
-          <t>4005696301642</t>
+          <t>3760006881122</t>
         </is>
       </c>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t>4005696301642</t>
+          <t>3760006881122</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4013197767010_2.jpg</t>
+          <t>3760044396411_2.jpg</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>4013197767010</t>
+          <t>3760044396411</t>
         </is>
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>4013197767010</t>
+          <t>3760044396411</t>
         </is>
       </c>
       <c r="D107" s="1" t="inlineStr">
         <is>
-          <t>4013197767010</t>
+          <t>3760044396411</t>
         </is>
       </c>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t>4013197767010</t>
+          <t>3760044396411</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>4020943134224_1.jpg</t>
+          <t>3760046253835_2.jpg</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>4020943134224</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr"/>
+          <t>3760046253835</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>3760046253835</t>
+        </is>
+      </c>
       <c r="D108" s="1" t="inlineStr">
         <is>
-          <t>4020943134224</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr"/>
+          <t>3760046253835</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>3760046253835</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>4035129611178_1.jpg</t>
+          <t>3760055835039_2.jpg</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>4035129611178</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr"/>
-      <c r="D109" s="2" t="inlineStr"/>
-      <c r="E109" s="2" t="inlineStr"/>
+          <t>3760055835039</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>3760055835039</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>3760055835039</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>3760055835039</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4052700093079_3.jpg</t>
+          <t>3760098453825_1.jpg</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>4052700093079</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr"/>
+          <t>3760098453825</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>3760098453825</t>
+        </is>
+      </c>
       <c r="D110" s="1" t="inlineStr">
         <is>
-          <t>4052700093079</t>
+          <t>3760098453825</t>
         </is>
       </c>
       <c r="E110" s="1" t="inlineStr">
         <is>
-          <t>4052700093079</t>
+          <t>3760098453825</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4058400001086_2.jpg</t>
+          <t>3760098453825_2.jpg</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>4058400001086</t>
+          <t>3760098453825</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr"/>
       <c r="D111" s="1" t="inlineStr">
         <is>
-          <t>4058400001086</t>
-        </is>
-      </c>
-      <c r="E111" s="1" t="inlineStr">
-        <is>
-          <t>4058400001086</t>
-        </is>
-      </c>
+          <t>3760098453825</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4250665323495_1.jpg</t>
+          <t>3760129920548_1.jpg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>4250665323495</t>
+          <t>3760129920548</t>
         </is>
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>4250665323495</t>
+          <t>3760129920548</t>
         </is>
       </c>
       <c r="D112" s="1" t="inlineStr">
         <is>
-          <t>4250665323495</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr"/>
+          <t>3760129920548</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>3760129920548</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4250665325581_3.jpg</t>
+          <t>3760241200115_1.jpg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4250665325581</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr"/>
-      <c r="D113" s="2" t="inlineStr"/>
-      <c r="E113" s="2" t="inlineStr"/>
+          <t>3760241200115</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>3760241200115</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>3760241200115</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>3760241200115</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4250665325581_4.jpg</t>
+          <t>3760241200115_2.jpg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4250665325581</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="inlineStr"/>
+          <t>3760241200115</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>3760241200115</t>
+        </is>
+      </c>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t>4250665325581</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr"/>
+          <t>3760241200115</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>3760241200115</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4250665325581_5.jpg</t>
+          <t>3760251820037_2.jpg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>4250665325581</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr"/>
+          <t>3760251820037</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>3760251820037</t>
+        </is>
+      </c>
       <c r="D115" s="1" t="inlineStr">
         <is>
-          <t>4250665325581</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="inlineStr"/>
+          <t>3760251820037</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>3760251820037</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4260281370674_2.jpg</t>
+          <t>3760253840927_2.jpg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4260281370674</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="inlineStr"/>
-      <c r="D116" s="2" t="inlineStr"/>
-      <c r="E116" s="2" t="inlineStr"/>
+          <t>3760253840927</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>3760253840927</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>3760253840927</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
+        <is>
+          <t>3760253840927</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4305615490205_2.jpg</t>
+          <t>3770006361418_1.jpg</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4305615490205</t>
-        </is>
-      </c>
-      <c r="C117" s="1" t="inlineStr">
-        <is>
-          <t>4305615490205</t>
-        </is>
-      </c>
+          <t>3770006361418</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr"/>
       <c r="D117" s="1" t="inlineStr">
         <is>
-          <t>4305615490205</t>
-        </is>
-      </c>
-      <c r="E117" s="1" t="inlineStr">
-        <is>
-          <t>4305615490205</t>
-        </is>
-      </c>
+          <t>3770006361418</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>4305615490212_2.jpg</t>
+          <t>3770008126008_1.jpg</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>4305615490212</t>
+          <t>3770008126008</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr"/>
-      <c r="D118" s="1" t="inlineStr">
-        <is>
-          <t>4305615490212</t>
-        </is>
-      </c>
-      <c r="E118" s="1" t="inlineStr">
-        <is>
-          <t>4305615490212</t>
-        </is>
-      </c>
+      <c r="D118" s="2" t="inlineStr"/>
+      <c r="E118" s="2" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4311501484838_2.jpg</t>
+          <t>3770008126008_2.jpg</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>4311501484838</t>
+          <t>3770008126008</t>
         </is>
       </c>
       <c r="C119" s="1" t="inlineStr">
         <is>
-          <t>4311501484838</t>
+          <t>3770008126008</t>
         </is>
       </c>
       <c r="D119" s="1" t="inlineStr">
         <is>
-          <t>4311501484838</t>
+          <t>3770008126008</t>
         </is>
       </c>
       <c r="E119" s="1" t="inlineStr">
         <is>
-          <t>4311501484838</t>
+          <t>3770008126008</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4311501625217_1.jpg</t>
+          <t>4005696301642_1.jpg</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4311501625217</t>
+          <t>4005696301642</t>
         </is>
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>4311501625217</t>
+          <t>4005696301642</t>
         </is>
       </c>
       <c r="D120" s="1" t="inlineStr">
         <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr"/>
+          <t>4005696301642</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
+          <t>4005696301642</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4311501625217_3.jpg</t>
+          <t>4013197767010_2.jpg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr"/>
+          <t>4013197767010</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>4013197767010</t>
+        </is>
+      </c>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>4311501625217</t>
+          <t>4013197767010</t>
         </is>
       </c>
       <c r="E121" s="1" t="inlineStr">
         <is>
-          <t>4311501625217</t>
+          <t>4013197767010</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4311501625217_4.jpg</t>
+          <t>4020943134224_1.jpg</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="C122" s="1" t="inlineStr">
-        <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr"/>
+          <t>4020943134224</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr"/>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>4020943134224</t>
+        </is>
+      </c>
       <c r="E122" s="2" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4311501625217_5.jpg</t>
+          <t>4035129002891_1.jpg</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="D123" s="1" t="inlineStr">
-        <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="E123" s="1" t="inlineStr">
-        <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
+          <t>4035129002891</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr"/>
+      <c r="D123" s="2" t="inlineStr"/>
+      <c r="E123" s="2" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4311501625217_8.jpg</t>
+          <t>4052700093079_3.jpg</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="C124" s="1" t="inlineStr">
-        <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
+          <t>4052700093079</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr"/>
       <c r="D124" s="1" t="inlineStr">
         <is>
-          <t>4311501625217</t>
+          <t>4052700093079</t>
         </is>
       </c>
       <c r="E124" s="1" t="inlineStr">
         <is>
-          <t>4311501625217</t>
+          <t>4052700093079</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>4311501625217_9.jpg</t>
+          <t>4058400001086_2.jpg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
-      <c r="C125" s="1" t="inlineStr">
-        <is>
-          <t>4311501625217</t>
-        </is>
-      </c>
+          <t>4058400001086</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr"/>
       <c r="D125" s="1" t="inlineStr">
         <is>
-          <t>4311501625217</t>
+          <t>4058400001086</t>
         </is>
       </c>
       <c r="E125" s="1" t="inlineStr">
         <is>
-          <t>4311501625217</t>
+          <t>4058400001086</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5021047102439_2.jpg</t>
+          <t>4250665323495_1.jpg</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5021047102439</t>
+          <t>4250665323495</t>
         </is>
       </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
-          <t>5021047102439</t>
+          <t>4250665323495</t>
         </is>
       </c>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>5021047102439</t>
-        </is>
-      </c>
-      <c r="E126" s="1" t="inlineStr">
-        <is>
-          <t>5021047102439</t>
-        </is>
-      </c>
+          <t>4250665323495</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5060228271205_2.jpg</t>
+          <t>4250665325581_3.jpg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5060228271205</t>
-        </is>
-      </c>
-      <c r="C127" s="1" t="inlineStr">
-        <is>
-          <t>5060228271205</t>
-        </is>
-      </c>
-      <c r="D127" s="1" t="inlineStr">
-        <is>
-          <t>5060228271205</t>
-        </is>
-      </c>
+          <t>4250665325581</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr"/>
+      <c r="D127" s="2" t="inlineStr"/>
       <c r="E127" s="2" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>5200300110613_2.jpg</t>
+          <t>4250665325581_4.jpg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5200300110613</t>
-        </is>
-      </c>
-      <c r="C128" s="1" t="inlineStr">
-        <is>
-          <t>5200300110613</t>
-        </is>
-      </c>
+          <t>4250665325581</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr"/>
       <c r="D128" s="1" t="inlineStr">
         <is>
-          <t>5200300110613</t>
-        </is>
-      </c>
-      <c r="E128" s="1" t="inlineStr">
-        <is>
-          <t>5200300110613</t>
-        </is>
-      </c>
+          <t>4250665325581</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5410228223054_2.jpg</t>
+          <t>4250665325581_5.jpg</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>5410228223054</t>
+          <t>4250665325581</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr"/>
-      <c r="D129" s="2" t="inlineStr"/>
+      <c r="D129" s="1" t="inlineStr">
+        <is>
+          <t>4250665325581</t>
+        </is>
+      </c>
       <c r="E129" s="2" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5410363041001_2.jpg</t>
+          <t>4305615490205_2.jpg</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>5410363041001</t>
+          <t>4305615490205</t>
         </is>
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
-          <t>5410363041001</t>
+          <t>4305615490205</t>
         </is>
       </c>
       <c r="D130" s="1" t="inlineStr">
         <is>
-          <t>5410363041001</t>
+          <t>4305615490205</t>
         </is>
       </c>
       <c r="E130" s="1" t="inlineStr">
         <is>
-          <t>5410363041001</t>
+          <t>4305615490205</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>5411361332504_2.jpg</t>
+          <t>4305615490212_2.jpg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>5411361332504</t>
+          <t>4305615490212</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr"/>
       <c r="D131" s="1" t="inlineStr">
         <is>
-          <t>5411361332504</t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="inlineStr"/>
+          <t>4305615490212</t>
+        </is>
+      </c>
+      <c r="E131" s="1" t="inlineStr">
+        <is>
+          <t>4305615490212</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>5411761278457_1.jpg</t>
+          <t>4311501484838_2.jpg</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>5411761278457</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr"/>
+          <t>4311501484838</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>4311501484838</t>
+        </is>
+      </c>
       <c r="D132" s="1" t="inlineStr">
         <is>
-          <t>5411761278457</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="inlineStr"/>
+          <t>4311501484838</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>4311501484838</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>5412929000514_2.jpg</t>
+          <t>4311501625217_1.jpg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>5412929000514</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr"/>
-      <c r="D133" s="2" t="inlineStr"/>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="D133" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
       <c r="E133" s="2" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5701379434506_2.jpg</t>
+          <t>4311501625217_3.jpg</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>5701379434506</t>
-        </is>
-      </c>
-      <c r="C134" s="1" t="inlineStr">
-        <is>
-          <t>5701379434506</t>
-        </is>
-      </c>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr"/>
       <c r="D134" s="1" t="inlineStr">
         <is>
-          <t>5701379434506</t>
+          <t>4311501625217</t>
         </is>
       </c>
       <c r="E134" s="1" t="inlineStr">
         <is>
-          <t>5701379434506</t>
+          <t>4311501625217</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>57023397_2.jpg</t>
+          <t>4311501625217_4.jpg</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>57023397</t>
+          <t>4311501625217</t>
         </is>
       </c>
       <c r="C135" s="1" t="inlineStr">
         <is>
-          <t>57023397</t>
-        </is>
-      </c>
-      <c r="D135" s="1" t="inlineStr">
-        <is>
-          <t>57023397</t>
-        </is>
-      </c>
-      <c r="E135" s="1" t="inlineStr">
-        <is>
-          <t>57023397</t>
-        </is>
-      </c>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr"/>
+      <c r="E135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6600412475256_1.jpg</t>
+          <t>4311501625217_5.jpg</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>6600412475256</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr"/>
-      <c r="D136" s="2" t="inlineStr"/>
-      <c r="E136" s="2" t="inlineStr"/>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="D136" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>7290013998026_1.jpg</t>
+          <t>4311501625217_8.jpg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7290013998026</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr"/>
-      <c r="D137" s="2" t="inlineStr"/>
-      <c r="E137" s="2" t="inlineStr"/>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7311800009357_1.jpg</t>
+          <t>4311501625217_9.jpg</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7311800009357</t>
+          <t>4311501625217</t>
         </is>
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>7311800009357</t>
+          <t>4311501625217</t>
         </is>
       </c>
       <c r="D138" s="1" t="inlineStr">
         <is>
-          <t>7311800009357</t>
+          <t>4311501625217</t>
         </is>
       </c>
       <c r="E138" s="1" t="inlineStr">
         <is>
-          <t>7311800009357</t>
+          <t>4311501625217</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7610900013913_2.jpg</t>
+          <t>5021047102439_2.jpg</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7610900013913</t>
+          <t>5021047102439</t>
         </is>
       </c>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>7610900013913</t>
+          <t>5021047102439</t>
         </is>
       </c>
       <c r="D139" s="1" t="inlineStr">
         <is>
-          <t>7610900013913</t>
-        </is>
-      </c>
-      <c r="E139" s="2" t="inlineStr"/>
+          <t>5021047102439</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
+          <t>5021047102439</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7613033968051_1.jpg</t>
+          <t>5060228271205_2.jpg</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7613033968051</t>
+          <t>5060228271205</t>
         </is>
       </c>
       <c r="C140" s="1" t="inlineStr">
         <is>
-          <t>7613033968051</t>
+          <t>5060228271205</t>
         </is>
       </c>
       <c r="D140" s="1" t="inlineStr">
         <is>
-          <t>7613033968051</t>
-        </is>
-      </c>
-      <c r="E140" s="1" t="inlineStr">
-        <is>
-          <t>7613033968051</t>
-        </is>
-      </c>
+          <t>5060228271205</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7896004005249_1.jpg</t>
+          <t>5200300110613_2.jpg</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7896004005249</t>
+          <t>5200300110613</t>
         </is>
       </c>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>7896004005249</t>
+          <t>5200300110613</t>
         </is>
       </c>
       <c r="D141" s="1" t="inlineStr">
         <is>
-          <t>7896004005249</t>
+          <t>5200300110613</t>
         </is>
       </c>
       <c r="E141" s="1" t="inlineStr">
         <is>
-          <t>7896004005249</t>
+          <t>5200300110613</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7899572806164_2.jpg</t>
+          <t>5203927599915_2.jpg</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7899572806164</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr"/>
-      <c r="D142" s="2" t="inlineStr"/>
-      <c r="E142" s="2" t="inlineStr"/>
+          <t>5203927599915</t>
+        </is>
+      </c>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>5203927599915</t>
+        </is>
+      </c>
+      <c r="D142" s="1" t="inlineStr">
+        <is>
+          <t>5203927599915</t>
+        </is>
+      </c>
+      <c r="E142" s="1" t="inlineStr">
+        <is>
+          <t>5203927599915</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>8000500285572_2.jpg</t>
+          <t>5410228223054_2.jpg</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>8000500285572</t>
-        </is>
-      </c>
-      <c r="C143" s="1" t="inlineStr">
-        <is>
-          <t>8000500285572</t>
-        </is>
-      </c>
-      <c r="D143" s="1" t="inlineStr">
-        <is>
-          <t>8000500285572</t>
-        </is>
-      </c>
-      <c r="E143" s="1" t="inlineStr">
-        <is>
-          <t>8000500285572</t>
-        </is>
-      </c>
+          <t>5410228223054</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr"/>
+      <c r="D143" s="2" t="inlineStr"/>
+      <c r="E143" s="2" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>8001665703901_1.jpg</t>
+          <t>5410363041001_2.jpg</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>8001665703901</t>
+          <t>5410363041001</t>
         </is>
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>8001665703901</t>
+          <t>5410363041001</t>
         </is>
       </c>
       <c r="D144" s="1" t="inlineStr">
         <is>
-          <t>8001665703901</t>
+          <t>5410363041001</t>
         </is>
       </c>
       <c r="E144" s="1" t="inlineStr">
         <is>
-          <t>8001665703901</t>
+          <t>5410363041001</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>80787174_2.jpg</t>
+          <t>5411361332504_2.jpg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>80787174</t>
-        </is>
-      </c>
-      <c r="C145" s="1" t="inlineStr">
-        <is>
-          <t>80787174</t>
-        </is>
-      </c>
+          <t>5411361332504</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr"/>
       <c r="D145" s="1" t="inlineStr">
         <is>
-          <t>80787174</t>
-        </is>
-      </c>
-      <c r="E145" s="1" t="inlineStr">
-        <is>
-          <t>80787174</t>
-        </is>
-      </c>
+          <t>5411361332504</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>8410069010568_2.jpg</t>
+          <t>5411761278457_1.jpg</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>8410069010568</t>
+          <t>5411761278457</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr"/>
-      <c r="D146" s="2" t="inlineStr"/>
+      <c r="D146" s="1" t="inlineStr">
+        <is>
+          <t>5411761278457</t>
+        </is>
+      </c>
       <c r="E146" s="2" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>8410087604800_2.jpg</t>
+          <t>5412929000514_2.jpg</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>8410087604800</t>
-        </is>
-      </c>
-      <c r="C147" s="1" t="inlineStr">
-        <is>
-          <t>8410087604800</t>
-        </is>
-      </c>
-      <c r="D147" s="1" t="inlineStr">
-        <is>
-          <t>8410087604800</t>
-        </is>
-      </c>
-      <c r="E147" s="1" t="inlineStr">
-        <is>
-          <t>8410087604800</t>
-        </is>
-      </c>
+          <t>5412929000514</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr"/>
+      <c r="D147" s="2" t="inlineStr"/>
+      <c r="E147" s="2" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>8410100017563_2.jpg</t>
+          <t>5701379434506_2.jpg</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>8410100017563</t>
+          <t>5701379434506</t>
         </is>
       </c>
       <c r="C148" s="1" t="inlineStr">
         <is>
-          <t>8410100017563</t>
+          <t>5701379434506</t>
         </is>
       </c>
       <c r="D148" s="1" t="inlineStr">
         <is>
-          <t>8410100017563</t>
+          <t>5701379434506</t>
         </is>
       </c>
       <c r="E148" s="1" t="inlineStr">
         <is>
-          <t>8410100017563</t>
+          <t>5701379434506</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>8410416008866_2.jpg</t>
+          <t>57023397_2.jpg</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8410416008866</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr"/>
-      <c r="D149" s="2" t="inlineStr"/>
-      <c r="E149" s="2" t="inlineStr"/>
+          <t>57023397</t>
+        </is>
+      </c>
+      <c r="C149" s="1" t="inlineStr">
+        <is>
+          <t>57023397</t>
+        </is>
+      </c>
+      <c r="D149" s="1" t="inlineStr">
+        <is>
+          <t>57023397</t>
+        </is>
+      </c>
+      <c r="E149" s="1" t="inlineStr">
+        <is>
+          <t>57023397</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>8410465006707_1.jpg</t>
+          <t>7311800009357_1.jpg</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>8410465006707</t>
+          <t>7311800009357</t>
         </is>
       </c>
       <c r="C150" s="1" t="inlineStr">
         <is>
-          <t>8410465006707</t>
+          <t>7311800009357</t>
         </is>
       </c>
       <c r="D150" s="1" t="inlineStr">
         <is>
-          <t>8410465006707</t>
+          <t>7311800009357</t>
         </is>
       </c>
       <c r="E150" s="1" t="inlineStr">
         <is>
-          <t>8410465006707</t>
+          <t>7311800009357</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>8411384005062_1.jpg</t>
+          <t>7610900013913_2.jpg</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>8411384005062</t>
+          <t>7610900013913</t>
         </is>
       </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>8411384005062</t>
+          <t>7610900013913</t>
         </is>
       </c>
       <c r="D151" s="1" t="inlineStr">
         <is>
-          <t>8411384005062</t>
-        </is>
-      </c>
-      <c r="E151" s="1" t="inlineStr">
-        <is>
-          <t>8411384005062</t>
-        </is>
-      </c>
+          <t>7610900013913</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>8424818182291_2.jpg</t>
+          <t>7613033968051_1.jpg</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>8424818182291</t>
+          <t>7613033968051</t>
         </is>
       </c>
       <c r="C152" s="1" t="inlineStr">
         <is>
-          <t>8424818182291</t>
+          <t>7613033968051</t>
         </is>
       </c>
       <c r="D152" s="1" t="inlineStr">
         <is>
-          <t>8424818182291</t>
+          <t>7613033968051</t>
         </is>
       </c>
       <c r="E152" s="1" t="inlineStr">
         <is>
-          <t>8424818182291</t>
+          <t>7613033968051</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>8437016945148_2.jpg</t>
+          <t>7896004005249_1.jpg</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>8437016945148</t>
+          <t>7896004005249</t>
         </is>
       </c>
       <c r="C153" s="1" t="inlineStr">
         <is>
-          <t>8437016945148</t>
+          <t>7896004005249</t>
         </is>
       </c>
       <c r="D153" s="1" t="inlineStr">
         <is>
-          <t>8437016945148</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="inlineStr"/>
+          <t>7896004005249</t>
+        </is>
+      </c>
+      <c r="E153" s="1" t="inlineStr">
+        <is>
+          <t>7896004005249</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>8588005778190_2.jpg</t>
+          <t>7899572806164_2.jpg</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>8588005778190</t>
+          <t>7899572806164</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr"/>
-      <c r="D154" s="1" t="inlineStr">
-        <is>
-          <t>8588005778190</t>
-        </is>
-      </c>
-      <c r="E154" s="1" t="inlineStr">
-        <is>
-          <t>8588005778190</t>
-        </is>
-      </c>
+      <c r="D154" s="2" t="inlineStr"/>
+      <c r="E154" s="2" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>8697431460361_1.jpg</t>
+          <t>8000500285572_2.jpg</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>8697431460361</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr"/>
+          <t>8000500285572</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>8000500285572</t>
+        </is>
+      </c>
       <c r="D155" s="1" t="inlineStr">
         <is>
-          <t>8697431460361</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr"/>
+          <t>8000500285572</t>
+        </is>
+      </c>
+      <c r="E155" s="1" t="inlineStr">
+        <is>
+          <t>8000500285572</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>8710908934711_1.jpg</t>
+          <t>8001665703901_1.jpg</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>8710908934711</t>
+          <t>8001665703901</t>
         </is>
       </c>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>8710908934711</t>
+          <t>8001665703901</t>
         </is>
       </c>
       <c r="D156" s="1" t="inlineStr">
         <is>
-          <t>8710908934711</t>
+          <t>8001665703901</t>
         </is>
       </c>
       <c r="E156" s="1" t="inlineStr">
         <is>
-          <t>8710908934711</t>
+          <t>8001665703901</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>8712800148104_1.jpg</t>
+          <t>80787174_2.jpg</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>8712800148104</t>
+          <t>80787174</t>
         </is>
       </c>
       <c r="C157" s="1" t="inlineStr">
         <is>
-          <t>8712800148104</t>
+          <t>80787174</t>
         </is>
       </c>
       <c r="D157" s="1" t="inlineStr">
         <is>
-          <t>8712800148104</t>
+          <t>80787174</t>
         </is>
       </c>
       <c r="E157" s="1" t="inlineStr">
         <is>
-          <t>8712800148104</t>
+          <t>80787174</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>8712800148104_2.jpg</t>
+          <t>8410087604800_2.jpg</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>8712800148104</t>
+          <t>8410087604800</t>
         </is>
       </c>
       <c r="C158" s="1" t="inlineStr">
         <is>
-          <t>8712800148104</t>
+          <t>8410087604800</t>
         </is>
       </c>
       <c r="D158" s="1" t="inlineStr">
         <is>
-          <t>8712800148104</t>
+          <t>8410087604800</t>
         </is>
       </c>
       <c r="E158" s="1" t="inlineStr">
         <is>
-          <t>8712800148104</t>
+          <t>8410087604800</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>8718885890846_3.jpg</t>
+          <t>8410100017563_2.jpg</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>8718885890846</t>
+          <t>8410100017563</t>
         </is>
       </c>
       <c r="C159" s="1" t="inlineStr">
         <is>
-          <t>8718885890846</t>
+          <t>8410100017563</t>
         </is>
       </c>
       <c r="D159" s="1" t="inlineStr">
         <is>
-          <t>8718885890846</t>
+          <t>8410100017563</t>
         </is>
       </c>
       <c r="E159" s="1" t="inlineStr">
         <is>
-          <t>8718885890846</t>
+          <t>8410100017563</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>8718885890846_4.jpg</t>
+          <t>8410465006707_1.jpg</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>8718885890846</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr"/>
-      <c r="D160" s="2" t="inlineStr"/>
-      <c r="E160" s="2" t="inlineStr"/>
+          <t>8410465006707</t>
+        </is>
+      </c>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>8410465006707</t>
+        </is>
+      </c>
+      <c r="D160" s="1" t="inlineStr">
+        <is>
+          <t>8410465006707</t>
+        </is>
+      </c>
+      <c r="E160" s="1" t="inlineStr">
+        <is>
+          <t>8410465006707</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>8934563107161_1.jpg</t>
+          <t>8410672000406_1.jpg</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>8934563107161</t>
+          <t>8410672000406</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr"/>
       <c r="D161" s="1" t="inlineStr">
         <is>
-          <t>8934563107161</t>
+          <t>8410672000406</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
@@ -4172,44 +4288,263 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>9400563452017_2.jpg</t>
+          <t>8411384005062_1.jpg</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>9400563452017</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>5203927599915</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>5203927599915</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>5203927599915</t>
+          <t>8411384005062</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>8411384005062</t>
+        </is>
+      </c>
+      <c r="D162" s="1" t="inlineStr">
+        <is>
+          <t>8411384005062</t>
+        </is>
+      </c>
+      <c r="E162" s="1" t="inlineStr">
+        <is>
+          <t>8411384005062</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>60.87%</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>78.88%</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>59.01%</t>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>8424818182291_2.jpg</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>8424818182291</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>8424818182291</t>
+        </is>
+      </c>
+      <c r="D163" s="1" t="inlineStr">
+        <is>
+          <t>8424818182291</t>
+        </is>
+      </c>
+      <c r="E163" s="1" t="inlineStr">
+        <is>
+          <t>8424818182291</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>8437016945148_2.jpg</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>8437016945148</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>8437016945148</t>
+        </is>
+      </c>
+      <c r="D164" s="1" t="inlineStr">
+        <is>
+          <t>8437016945148</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>8588005778190_2.jpg</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>8588005778190</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr"/>
+      <c r="D165" s="1" t="inlineStr">
+        <is>
+          <t>8588005778190</t>
+        </is>
+      </c>
+      <c r="E165" s="1" t="inlineStr">
+        <is>
+          <t>8588005778190</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>8697431460361_1.jpg</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>8697431460361</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr"/>
+      <c r="D166" s="1" t="inlineStr">
+        <is>
+          <t>8697431460361</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>8710908934711_1.jpg</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>8710908934711</t>
+        </is>
+      </c>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>8710908934711</t>
+        </is>
+      </c>
+      <c r="D167" s="1" t="inlineStr">
+        <is>
+          <t>8710908934711</t>
+        </is>
+      </c>
+      <c r="E167" s="1" t="inlineStr">
+        <is>
+          <t>8710908934711</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>8712800148104_1.jpg</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>8712800148104</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>8712800148104</t>
+        </is>
+      </c>
+      <c r="D168" s="1" t="inlineStr">
+        <is>
+          <t>8712800148104</t>
+        </is>
+      </c>
+      <c r="E168" s="1" t="inlineStr">
+        <is>
+          <t>8712800148104</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>8712800148104_2.jpg</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>8712800148104</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>8712800148104</t>
+        </is>
+      </c>
+      <c r="D169" s="1" t="inlineStr">
+        <is>
+          <t>8712800148104</t>
+        </is>
+      </c>
+      <c r="E169" s="1" t="inlineStr">
+        <is>
+          <t>8712800148104</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>8718885890846_3.jpg</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>8718885890846</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>8718885890846</t>
+        </is>
+      </c>
+      <c r="D170" s="1" t="inlineStr">
+        <is>
+          <t>8718885890846</t>
+        </is>
+      </c>
+      <c r="E170" s="1" t="inlineStr">
+        <is>
+          <t>8718885890846</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>8934563107161_1.jpg</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>8934563107161</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr"/>
+      <c r="D171" s="1" t="inlineStr">
+        <is>
+          <t>8934563107161</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>67.65%</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>87.06%</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>65.88%</t>
         </is>
       </c>
     </row>

--- a/examples/official/zxing_zbar/benchmark.xlsx
+++ b/examples/official/zxing_zbar/benchmark.xlsx
@@ -1215,7 +1215,11 @@
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>2494593028073</t>
+        </is>
+      </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
           <t>2494593028073</t>
@@ -1437,9 +1441,9 @@
           <t>3222476758729</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>3222476758729</t>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>12221701</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -1483,7 +1487,11 @@
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>3240931541419</t>
+        </is>
+      </c>
       <c r="E44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
@@ -2267,7 +2275,11 @@
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
-      <c r="D76" s="2" t="inlineStr"/>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>3425470021008</t>
+        </is>
+      </c>
       <c r="E76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
@@ -2282,7 +2294,11 @@
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
-      <c r="D77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>2600185021586</t>
+        </is>
+      </c>
       <c r="E77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
@@ -2324,7 +2340,11 @@
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
-      <c r="D79" s="2" t="inlineStr"/>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>3448550008010</t>
+        </is>
+      </c>
       <c r="E79" s="2" t="inlineStr"/>
     </row>
     <row r="80">
@@ -2665,7 +2685,11 @@
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr"/>
-      <c r="D94" s="2" t="inlineStr"/>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>3560071094980</t>
+        </is>
+      </c>
       <c r="E94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3468,7 +3492,11 @@
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr"/>
-      <c r="D127" s="2" t="inlineStr"/>
+      <c r="D127" s="1" t="inlineStr">
+        <is>
+          <t>4250665325581</t>
+        </is>
+      </c>
       <c r="E127" s="2" t="inlineStr"/>
     </row>
     <row r="128">
@@ -3648,7 +3676,11 @@
           <t>4311501625217</t>
         </is>
       </c>
-      <c r="D135" s="2" t="inlineStr"/>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t>4311501625217</t>
+        </is>
+      </c>
       <c r="E135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
@@ -4539,7 +4571,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>87.06%</t>
+          <t>90.59%</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
